--- a/financial_models/Model_templates/Listed_template/Stock_Valuation_v05Jan2022.xlsx
+++ b/financial_models/Model_templates/Listed_template/Stock_Valuation_v05Jan2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/InvestmentManagement/financial_models/Opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/InvestmentManagement/financial_models/Model_templates/Listed_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34860207-155E-C044-B1D6-7DC94BAD66A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87C68FB-4384-6C43-BF9E-5E43D1B73EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3184,36 +3184,99 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3221,6 +3284,10 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3235,100 +3302,30 @@
     <xf numFmtId="165" fontId="4" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3370,6 +3367,9 @@
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3705,7 +3705,7 @@
   <dimension ref="A1:M990"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3732,11 +3732,11 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="322" t="str">
+      <c r="C2" s="310" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>6601.HK : CHEERWIN GP</v>
       </c>
-      <c r="D2" s="323"/>
+      <c r="D2" s="311"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -3749,27 +3749,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="324" t="s">
+      <c r="C3" s="312" t="s">
         <v>348</v>
       </c>
-      <c r="D3" s="325"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="337" t="s">
+      <c r="I3" s="323" t="s">
         <v>350</v>
       </c>
-      <c r="J3" s="338"/>
+      <c r="J3" s="324"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="326" t="s">
+      <c r="C4" s="314" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="327"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>4</v>
@@ -3785,10 +3785,10 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="328">
+      <c r="C5" s="316">
         <v>44931</v>
       </c>
-      <c r="D5" s="327"/>
+      <c r="D5" s="315"/>
       <c r="E5" s="243" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -3796,31 +3796,29 @@
       <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="339">
+      <c r="I5" s="306">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="340"/>
+      <c r="J5" s="307"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="331">
+      <c r="C6" s="319">
         <v>45001</v>
       </c>
-      <c r="D6" s="332"/>
-      <c r="E6" s="243" t="b">
-        <v>1</v>
-      </c>
+      <c r="D6" s="299"/>
+      <c r="E6" s="243"/>
       <c r="G6" s="274" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="273"/>
-      <c r="I6" s="341">
+      <c r="I6" s="325">
         <f>I4*I5/1000000</f>
         <v>2373.3274854400001</v>
       </c>
-      <c r="J6" s="342"/>
+      <c r="J6" s="326"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
@@ -3892,19 +3890,19 @@
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="343">
+      <c r="C11" s="327">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D11" s="344"/>
+      <c r="D11" s="328"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="345" t="s">
+      <c r="I11" s="329" t="s">
         <v>351</v>
       </c>
-      <c r="J11" s="346"/>
+      <c r="J11" s="330"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="133" t="s">
@@ -3944,10 +3942,12 @@
         <v>24</v>
       </c>
       <c r="H13" s="288"/>
-      <c r="I13" s="348">
+      <c r="I13" s="374">
         <v>4.4000358416883142E-2</v>
       </c>
-      <c r="J13" s="348"/>
+      <c r="J13" s="374">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4134,14 +4134,14 @@
       <c r="B22" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="333"/>
-      <c r="D22" s="334"/>
-      <c r="E22" s="334"/>
-      <c r="F22" s="334"/>
-      <c r="G22" s="334"/>
-      <c r="H22" s="334"/>
-      <c r="I22" s="334"/>
-      <c r="J22" s="335"/>
+      <c r="C22" s="320"/>
+      <c r="D22" s="321"/>
+      <c r="E22" s="321"/>
+      <c r="F22" s="321"/>
+      <c r="G22" s="321"/>
+      <c r="H22" s="321"/>
+      <c r="I22" s="321"/>
+      <c r="J22" s="322"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4149,14 +4149,14 @@
       <c r="B23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="347"/>
-      <c r="D23" s="301"/>
-      <c r="E23" s="301"/>
-      <c r="F23" s="301"/>
-      <c r="G23" s="347"/>
-      <c r="H23" s="347"/>
-      <c r="I23" s="301"/>
-      <c r="J23" s="301"/>
+      <c r="C23" s="331"/>
+      <c r="D23" s="332"/>
+      <c r="E23" s="332"/>
+      <c r="F23" s="332"/>
+      <c r="G23" s="331"/>
+      <c r="H23" s="331"/>
+      <c r="I23" s="332"/>
+      <c r="J23" s="332"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4164,14 +4164,14 @@
       <c r="B24" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="336"/>
-      <c r="D24" s="332"/>
-      <c r="E24" s="332"/>
-      <c r="F24" s="332"/>
-      <c r="G24" s="336"/>
-      <c r="H24" s="336"/>
-      <c r="I24" s="332"/>
-      <c r="J24" s="332"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="299"/>
+      <c r="E24" s="299"/>
+      <c r="F24" s="299"/>
+      <c r="G24" s="298"/>
+      <c r="H24" s="298"/>
+      <c r="I24" s="299"/>
+      <c r="J24" s="299"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4207,162 +4207,162 @@
       <c r="B27" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="329"/>
-      <c r="D27" s="330"/>
-      <c r="E27" s="329"/>
-      <c r="F27" s="330"/>
-      <c r="G27" s="351"/>
-      <c r="H27" s="352"/>
-      <c r="I27" s="310" t="s">
+      <c r="C27" s="317"/>
+      <c r="D27" s="318"/>
+      <c r="E27" s="317"/>
+      <c r="F27" s="318"/>
+      <c r="G27" s="302"/>
+      <c r="H27" s="303"/>
+      <c r="I27" s="335" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="310"/>
+      <c r="J27" s="335"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="309">
+      <c r="C28" s="333">
         <f>C32/D26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="303"/>
-      <c r="E28" s="302">
+      <c r="D28" s="334"/>
+      <c r="E28" s="350">
         <f>E32/D26</f>
         <v>0</v>
       </c>
-      <c r="F28" s="303"/>
-      <c r="G28" s="353">
+      <c r="F28" s="334"/>
+      <c r="G28" s="304">
         <f>G32/D26</f>
         <v>0</v>
       </c>
-      <c r="H28" s="354"/>
-      <c r="I28" s="304">
+      <c r="H28" s="305"/>
+      <c r="I28" s="351">
         <f>C28+E28+G28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="304"/>
+      <c r="J28" s="351"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="300"/>
-      <c r="D29" s="301"/>
-      <c r="E29" s="300"/>
-      <c r="F29" s="301"/>
-      <c r="G29" s="339"/>
-      <c r="H29" s="340"/>
-      <c r="I29" s="321">
+      <c r="C29" s="348"/>
+      <c r="D29" s="332"/>
+      <c r="E29" s="348"/>
+      <c r="F29" s="332"/>
+      <c r="G29" s="306"/>
+      <c r="H29" s="307"/>
+      <c r="I29" s="349">
         <f>C29+E29+G29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="321"/>
+      <c r="J29" s="349"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="320"/>
-      <c r="D30" s="301"/>
-      <c r="E30" s="320"/>
-      <c r="F30" s="301"/>
-      <c r="G30" s="305"/>
-      <c r="H30" s="306"/>
-      <c r="I30" s="355"/>
-      <c r="J30" s="355"/>
+      <c r="C30" s="347"/>
+      <c r="D30" s="332"/>
+      <c r="E30" s="347"/>
+      <c r="F30" s="332"/>
+      <c r="G30" s="352"/>
+      <c r="H30" s="353"/>
+      <c r="I30" s="308"/>
+      <c r="J30" s="308"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="298">
+      <c r="C31" s="340">
         <f>C30*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="D31" s="299"/>
-      <c r="E31" s="298">
+      <c r="D31" s="341"/>
+      <c r="E31" s="340">
         <f>E30*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F31" s="299"/>
-      <c r="G31" s="307">
+      <c r="F31" s="341"/>
+      <c r="G31" s="354">
         <f>G30*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H31" s="308"/>
-      <c r="I31" s="356"/>
-      <c r="J31" s="356"/>
+      <c r="H31" s="355"/>
+      <c r="I31" s="309"/>
+      <c r="J31" s="309"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="315">
+      <c r="C32" s="342">
         <f>C29*C30</f>
         <v>0</v>
       </c>
-      <c r="D32" s="316"/>
-      <c r="E32" s="317">
+      <c r="D32" s="343"/>
+      <c r="E32" s="344">
         <f>E29*E30</f>
         <v>0</v>
       </c>
-      <c r="F32" s="318"/>
-      <c r="G32" s="349">
+      <c r="F32" s="345"/>
+      <c r="G32" s="300">
         <f>G29*G30</f>
         <v>0</v>
       </c>
-      <c r="H32" s="350"/>
-      <c r="I32" s="317">
+      <c r="H32" s="301"/>
+      <c r="I32" s="344">
         <f>C32+E32+G32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="317"/>
+      <c r="J32" s="344"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="311"/>
-      <c r="D33" s="312"/>
-      <c r="E33" s="319" t="str">
+      <c r="C33" s="336"/>
+      <c r="D33" s="337"/>
+      <c r="E33" s="346" t="str">
         <f>IF(C32=0,"-",(C32+E32)/(C29+E29))</f>
         <v>-</v>
       </c>
-      <c r="F33" s="303"/>
+      <c r="F33" s="334"/>
       <c r="G33" s="235"/>
       <c r="H33" s="235"/>
-      <c r="I33" s="319" t="str">
+      <c r="I33" s="346" t="str">
         <f>IF(I32=0,"",I32/I29)</f>
         <v/>
       </c>
-      <c r="J33" s="319"/>
+      <c r="J33" s="346"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="313"/>
-      <c r="D34" s="314"/>
-      <c r="E34" s="298" t="str">
+      <c r="C34" s="338"/>
+      <c r="D34" s="339"/>
+      <c r="E34" s="340" t="str">
         <f>IF(E33="-","-",E33*$I$5/1000000)</f>
         <v>-</v>
       </c>
-      <c r="F34" s="299"/>
+      <c r="F34" s="341"/>
       <c r="G34" s="236"/>
       <c r="H34" s="236"/>
-      <c r="I34" s="298" t="str">
+      <c r="I34" s="340" t="str">
         <f>IF(I33="","",I33*$I$5/1000000)</f>
         <v/>
       </c>
-      <c r="J34" s="298"/>
+      <c r="J34" s="340"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5335,15 +5335,29 @@
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
+  <mergeCells count="45">
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I29:J29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -5360,28 +5374,13 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
@@ -7242,10 +7241,10 @@
         <v>96</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="362">
+      <c r="D51" s="361">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="E51" s="363"/>
+      <c r="E51" s="362"/>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7254,10 +7253,10 @@
         <v>97</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="357" t="s">
+      <c r="D52" s="356" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="301"/>
+      <c r="E52" s="332"/>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7272,10 +7271,10 @@
         <v>99</v>
       </c>
       <c r="C54" s="72"/>
-      <c r="D54" s="358">
+      <c r="D54" s="357">
         <v>5</v>
       </c>
-      <c r="E54" s="359"/>
+      <c r="E54" s="358"/>
       <c r="F54" s="73"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7286,10 +7285,10 @@
       <c r="C55" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="360" t="s">
+      <c r="D55" s="359" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="361"/>
+      <c r="E55" s="360"/>
       <c r="F55" s="76" t="s">
         <v>103</v>
       </c>
@@ -9068,11 +9067,11 @@
   <sheetData>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="365" t="s">
+      <c r="B2" s="364" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="365"/>
-      <c r="D2" s="365"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -9146,11 +9145,11 @@
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="365" t="s">
+      <c r="B8" s="364" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
       <c r="E8" s="8"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -9807,8 +9806,8 @@
         <v>185</v>
       </c>
       <c r="C42" s="5"/>
-      <c r="D42" s="366"/>
-      <c r="E42" s="366"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="365"/>
     </row>
     <row r="43" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="5" t="s">
@@ -9837,8 +9836,8 @@
         <v>187</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="366"/>
-      <c r="E45" s="366"/>
+      <c r="D45" s="365"/>
+      <c r="E45" s="365"/>
       <c r="F45" s="70"/>
     </row>
     <row r="46" spans="2:9" ht="14" x14ac:dyDescent="0.15">
@@ -9846,10 +9845,10 @@
         <v>188</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="367">
+      <c r="D46" s="366">
         <v>0</v>
       </c>
-      <c r="E46" s="301"/>
+      <c r="E46" s="332"/>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="2:9" ht="14" x14ac:dyDescent="0.15">
@@ -9857,10 +9856,10 @@
         <v>189</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="367">
+      <c r="D47" s="366">
         <v>0</v>
       </c>
-      <c r="E47" s="301"/>
+      <c r="E47" s="332"/>
       <c r="F47" s="6" t="s">
         <v>190</v>
       </c>
@@ -9870,11 +9869,11 @@
         <v>191</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="321">
+      <c r="D48" s="349">
         <f>Data!C26+D46+D47</f>
         <v>19676</v>
       </c>
-      <c r="E48" s="364"/>
+      <c r="E48" s="363"/>
       <c r="F48" s="5" t="s">
         <v>192</v>
       </c>
@@ -9888,8 +9887,8 @@
         <v>193</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="366"/>
-      <c r="E50" s="366"/>
+      <c r="D50" s="365"/>
+      <c r="E50" s="365"/>
       <c r="F50" s="19" t="s">
         <v>194</v>
       </c>
@@ -9899,11 +9898,11 @@
         <v>195</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="368">
+      <c r="D51" s="367">
         <f>E11+E12+E25+E28+E29</f>
         <v>228592</v>
       </c>
-      <c r="E51" s="369"/>
+      <c r="E51" s="368"/>
       <c r="F51" s="14">
         <f>1-(E12+E25+E28+E29)/(C12+C25+C28+C29)</f>
         <v>0</v>
@@ -9915,11 +9914,11 @@
         <v>139</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="321">
+      <c r="D52" s="349">
         <f>C10+C32</f>
         <v>2198451</v>
       </c>
-      <c r="E52" s="364"/>
+      <c r="E52" s="363"/>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="2:7" ht="14" x14ac:dyDescent="0.15">
@@ -9927,11 +9926,11 @@
         <v>196</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="321">
+      <c r="D53" s="349">
         <f>((Dashboard!I6*1000)+D48+E43-(C12+C25+C28+C29)-D52)</f>
         <v>-32757.51456000004</v>
       </c>
-      <c r="E53" s="364"/>
+      <c r="E53" s="363"/>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10709,9 +10708,9 @@
       <c r="D42" s="163"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="I42" s="370"/>
-      <c r="J42" s="370"/>
-      <c r="K42" s="370"/>
+      <c r="I42" s="369"/>
+      <c r="J42" s="369"/>
+      <c r="K42" s="369"/>
       <c r="L42" s="164"/>
       <c r="M42" s="165"/>
     </row>
@@ -11008,10 +11007,10 @@
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="322" t="s">
+      <c r="C59" s="310" t="s">
         <v>247</v>
       </c>
-      <c r="D59" s="371"/>
+      <c r="D59" s="370"/>
       <c r="E59" s="36" t="s">
         <v>27</v>
       </c>
@@ -11134,7 +11133,7 @@
         <f>Dashboard!B17</f>
         <v>1.78</v>
       </c>
-      <c r="C66" s="372">
+      <c r="C66" s="371">
         <f>F35/(Dashboard!I5/Data!C4)</f>
         <v>1.8045681964560361</v>
       </c>
@@ -11152,7 +11151,7 @@
         <f>Dashboard!B18</f>
         <v>2.4507281366094018</v>
       </c>
-      <c r="C67" s="373"/>
+      <c r="C67" s="372"/>
       <c r="D67" s="281">
         <f>IF((-B67+C66)&gt;0,0,-B67+C66)</f>
         <v>-0.64615994015336575</v>
@@ -11166,7 +11165,7 @@
         <f>Dashboard!B19</f>
         <v>1.5</v>
       </c>
-      <c r="C68" s="374"/>
+      <c r="C68" s="373"/>
       <c r="D68" s="283">
         <f>IF((-B68+C66)&gt;0,0,-B68+C66)</f>
         <v>0</v>
